--- a/results/I3_N5_M3_T45_C150_DepCentral_s3_mean_res.xlsx
+++ b/results/I3_N5_M3_T45_C150_DepCentral_s3_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.24652248552367</v>
+        <v>26.1901829964691</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2709999084472656</v>
+        <v>0.1590001583099365</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.24652248552367</v>
+        <v>26.1901829964691</v>
       </c>
     </row>
     <row r="7">
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34.1376925937048</v>
+        <v>39.93048325774537</v>
       </c>
     </row>
     <row r="4">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>41.38795072015898</v>
       </c>
     </row>
     <row r="6">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32.35722294236245</v>
+        <v>30.33301651610694</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>138.3580000000221</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>88.01900000000389</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>41.23200000001089</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>73.97800000000281</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>136.1390000000085</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>41.23200000003818</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>136.1390000000122</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>138.3580000000439</v>
+        <v>122.4</v>
       </c>
     </row>
   </sheetData>
